--- a/medicine/Pharmacie/Anticholinestérase/Anticholinestérase.xlsx
+++ b/medicine/Pharmacie/Anticholinestérase/Anticholinestérase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Anticholinest%C3%A9rase</t>
+          <t>Anticholinestérase</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les substances anticholinesterasiques sont des inhibiteurs d'une enzyme cholinestérase responsable de la dégradation de l'acétylcholine (neurotransmetteur du système para-sympathique qui est libéré aux jonctions neuromusculaires).
 L'intoxication par des substances anticholinestérasiques entraine une crise cholinergique dont les effets sont :
@@ -501,7 +513,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Anticholinest%C3%A9rase</t>
+          <t>Anticholinestérase</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -519,7 +531,9 @@
           <t>Substance</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Parmi les substances anticholinestérasiques, on retrouve : 
 des médicaments utilisés  :
@@ -527,7 +541,7 @@
 dans la myasthénie : néostigmine ;
 des pesticides (comme le malathion), insecticides organophosphorés, insecticides carbamates ;
 des gaz de combat neurotoxiques, comme le sarin, la substance VX et le Novitchok, parmi d'autres ;
-dans une moindre mesure des psychotropes comme la caféine (anticholinésterase non-compétitif)[1],[2].</t>
+dans une moindre mesure des psychotropes comme la caféine (anticholinésterase non-compétitif),.</t>
         </is>
       </c>
     </row>
